--- a/user_list.xlsx
+++ b/user_list.xlsx
@@ -1,42 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Имя участника</t>
+  </si>
+  <si>
+    <t>Kateryna</t>
+  </si>
+  <si>
+    <t>Катя</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Аня</t>
+  </si>
+  <si>
+    <t>Yana</t>
+  </si>
+  <si>
+    <t>Яна</t>
+  </si>
+  <si>
+    <t>Daria</t>
+  </si>
+  <si>
+    <t>Даша</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>Надя</t>
+  </si>
+  <si>
+    <t>Nadel</t>
+  </si>
+  <si>
+    <t>Надя Маркетинг</t>
+  </si>
+  <si>
+    <t>Vasilina</t>
+  </si>
+  <si>
+    <t>Василина</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Соня</t>
+  </si>
+  <si>
+    <t>Dimas</t>
+  </si>
+  <si>
+    <t>Дима</t>
+  </si>
+  <si>
+    <t>Daniil</t>
+  </si>
+  <si>
+    <t>Даня</t>
+  </si>
+  <si>
+    <t>Evgeniy</t>
+  </si>
+  <si>
+    <t>Женя</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Ilya</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Саша</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="2">
     <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <color theme="1"/>
       <name val="Arial"/>
-      <color theme="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -57,101 +145,31 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,207 +367,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="15.5"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Имя участника</t>
-        </is>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Kateryna</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Катя</t>
-        </is>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Anna</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Аня</t>
-        </is>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Yana</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Яна</t>
-        </is>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Daria</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Даша</t>
-        </is>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Nadia</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Надя</t>
-        </is>
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Nadel</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Надя Маркетинг</t>
-        </is>
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Vasilina</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Василина</t>
-        </is>
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Sofia</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Соня</t>
-        </is>
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Dimas</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Дима</t>
-        </is>
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Daniil</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Даня</t>
-        </is>
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Evgeniy</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Женя</t>
-        </is>
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Andy</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>Андрей</t>
-        </is>
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>Ilya</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Илья</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="n"/>
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Саша</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="n"/>
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/user_list.xlsx
+++ b/user_list.xlsx
@@ -1,130 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>Имя участника</t>
-  </si>
-  <si>
-    <t>Kateryna</t>
-  </si>
-  <si>
-    <t>Катя</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Аня</t>
-  </si>
-  <si>
-    <t>Yana</t>
-  </si>
-  <si>
-    <t>Яна</t>
-  </si>
-  <si>
-    <t>Daria</t>
-  </si>
-  <si>
-    <t>Даша</t>
-  </si>
-  <si>
-    <t>Nadia</t>
-  </si>
-  <si>
-    <t>Надя</t>
-  </si>
-  <si>
-    <t>Nadel</t>
-  </si>
-  <si>
-    <t>Надя Маркетинг</t>
-  </si>
-  <si>
-    <t>Vasilina</t>
-  </si>
-  <si>
-    <t>Василина</t>
-  </si>
-  <si>
-    <t>Sofia</t>
-  </si>
-  <si>
-    <t>Соня</t>
-  </si>
-  <si>
-    <t>Dimas</t>
-  </si>
-  <si>
-    <t>Дима</t>
-  </si>
-  <si>
-    <t>Daniil</t>
-  </si>
-  <si>
-    <t>Даня</t>
-  </si>
-  <si>
-    <t>Evgeniy</t>
-  </si>
-  <si>
-    <t>Женя</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>Андрей</t>
-  </si>
-  <si>
-    <t>Ilya</t>
-  </si>
-  <si>
-    <t>Илья</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Саша</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
       <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -145,31 +57,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,145 +349,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="15.5"/>
+    <col width="15.5" customWidth="1" style="4" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Имя участника</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Kateryna</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Катя</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Аня</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Yana</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Яна</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Daria</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Даша</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Nadia</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Надя</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Nadel</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Надя Маркетинг</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Vasilina</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Василина</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Соня</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Dimas</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Дима</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Daniil</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Даня</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Evgeniy</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Женя</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Andy</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Ilya</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Илья</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3"/>
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Саша</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/user_list.xlsx
+++ b/user_list.xlsx
@@ -59,7 +59,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -79,6 +79,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,16 +475,17 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>Dimas</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Дима</t>
         </is>
       </c>
+      <c r="C10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">

--- a/user_list.xlsx
+++ b/user_list.xlsx
@@ -439,16 +439,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Nadel</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Надя Маркетинг</t>
         </is>
       </c>
+      <c r="C7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">

--- a/user_list.xlsx
+++ b/user_list.xlsx
@@ -513,16 +513,17 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Andy</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Андрей</t>
         </is>
       </c>
+      <c r="C13" s="7" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
